--- a/doc/pumpinfo.xlsx
+++ b/doc/pumpinfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rsericerca-my.sharepoint.com/personal/muro_rse-web_it/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DiscoD\Muro\GitHub\multienergysystem\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2023" documentId="8_{7633F47F-8DB0-4BB6-9720-1A489288FDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E715B3AF-5343-4B98-BD5F-5A225C4C8501}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58892A63-0816-4A31-A85F-C418F79D33C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="683" firstSheet="4" activeTab="13" xr2:uid="{4119C288-BE25-4E3B-9B9B-25A3EA8D7C7F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="683" firstSheet="2" activeTab="10" xr2:uid="{4119C288-BE25-4E3B-9B9B-25A3EA8D7C7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
     <sheet name="P701" sheetId="16" r:id="rId15"/>
     <sheet name="P701_points" sheetId="17" r:id="rId16"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId17"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -74,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="64">
   <si>
     <t>speed (rad/s)</t>
   </si>
@@ -6127,12 +6124,9 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'P301'!$AS$13</c:f>
+              <c:f>'P901'!$BH$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>H(m)</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -6213,78 +6207,78 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'P301'!$AR$14:$AR$23</c:f>
+              <c:f>'P901'!$AR$14:$AR$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.25</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8499999999999996</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.75</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.75</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.75</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.75</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.2</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'P301'!$AS$14:$AS$23</c:f>
+              <c:f>'P901'!$BH$14:$BH$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>12.5</c:v>
+                  <c:v>24.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.25</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>21.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.25</c:v>
+                  <c:v>20.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.25</c:v>
+                  <c:v>19.45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.75</c:v>
+                  <c:v>17.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.75</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.5</c:v>
+                  <c:v>15.05</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.25</c:v>
+                  <c:v>13.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.7</c:v>
+                  <c:v>11.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6292,7 +6286,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3661-4AC3-A7D7-5268FB837483}"/>
+              <c16:uniqueId val="{00000001-3210-4A23-8958-46A89ABDB64E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6531,410 +6525,9 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'P301'!$AS$72</c:f>
+              <c:f>'P901'!$BI$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>P2(kW)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.8601706036745408E-2"/>
-                  <c:y val="-2.2394569907328882E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="it-IT"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'P301'!$AR$74:$AR$82</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>3.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'P301'!$AS$74:$AS$82</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>470</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>510</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-08CB-4319-967D-D8129E6791EC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1751931743"/>
-        <c:axId val="1562696623"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1751931743"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1562696623"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1562696623"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1751931743"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'P302'!$AS$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>H(m)</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -7015,78 +6608,78 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'P302'!$AR$14:$AR$23</c:f>
+              <c:f>'P901'!$AR$14:$AR$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.25</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8499999999999996</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.75</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.75</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.75</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.75</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.2</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'P302'!$AS$14:$AS$23</c:f>
+              <c:f>'P901'!$BI$14:$BI$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>12.5</c:v>
+                  <c:v>24.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.25</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>21.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.25</c:v>
+                  <c:v>20.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.25</c:v>
+                  <c:v>21.45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.75</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.75</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.5</c:v>
+                  <c:v>17.05</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.25</c:v>
+                  <c:v>15.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.7</c:v>
+                  <c:v>13.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7094,7 +6687,607 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-09D8-40C8-8594-C5A405FEB29F}"/>
+              <c16:uniqueId val="{00000001-AD89-447F-A978-FB260B35EB1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1465683983"/>
+        <c:axId val="1465683567"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1465683983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1465683567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1465683567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1465683983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.4216141808488584E-2"/>
+          <c:y val="9.1430172087683961E-2"/>
+          <c:w val="0.89447309649458073"/>
+          <c:h val="0.81713965582463211"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'P901'!$AS$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H(m)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.507020997375328E-2"/>
+                  <c:y val="-2.9403616214639838E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'P901'!$AR$14:$AR$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'P901'!$AS$14:$AS$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D0D9-40D6-B835-A80E1B15FDE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'P901'!$AT$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'P901'!$AR$14:$AR$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'P901'!$AT$14:$AT$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>16.844267680000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.724053880000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.123399480000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.348628280000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.342631680000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0934164800000019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5279052800000024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D0D9-40D6-B835-A80E1B15FDE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'P901'!$AU$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'P901'!$AR$14:$AR$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'P901'!$AU$14:$AU$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.7500563200000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2278827199999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0912819199999984</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0485375199999973</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90855432000000036</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D0D9-40D6-B835-A80E1B15FDE8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7333,6 +7526,1212 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>'P301'!$AS$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H(m)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.507020997375328E-2"/>
+                  <c:y val="-2.9403616214639838E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'P301'!$AR$14:$AR$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'P301'!$AS$14:$AS$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3661-4AC3-A7D7-5268FB837483}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1465683983"/>
+        <c:axId val="1465683567"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1465683983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1465683567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1465683567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1465683983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'P301'!$AS$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P2(kW)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.8601706036745408E-2"/>
+                  <c:y val="-2.2394569907328882E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'P301'!$AR$74:$AR$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'P301'!$AS$74:$AS$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>510</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-08CB-4319-967D-D8129E6791EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1751931743"/>
+        <c:axId val="1562696623"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1751931743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1562696623"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1562696623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1751931743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'P302'!$AS$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H(m)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.507020997375328E-2"/>
+                  <c:y val="-2.9403616214639838E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'P302'!$AR$14:$AR$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'P302'!$AS$14:$AS$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-09D8-40C8-8594-C5A405FEB29F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1465683983"/>
+        <c:axId val="1465683567"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1465683983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1465683567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1465683567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1465683983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>'P302'!$AS$72</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -7676,7 +9075,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -8080,7 +9479,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -8434,1212 +9833,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1453548287"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'P701'!$AS$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>H(m)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-8.507020997375328E-2"/>
-                  <c:y val="-2.9403616214639838E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="it-IT"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'P701'!$AR$14:$AR$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.8499999999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11.75</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.75</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'P701'!$AS$14:$AS$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-34BD-43C9-BB41-2B9A1544A1FA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1465683983"/>
-        <c:axId val="1465683567"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1465683983"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1465683567"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1465683567"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1465683983"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'P701'!$AS$72</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>P2(kW)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.8601706036745408E-2"/>
-                  <c:y val="-2.2394569907328882E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="it-IT"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'P701'!$AR$74:$AR$82</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>3.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'P701'!$AS$74:$AS$82</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>470</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>510</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-855B-4259-865C-7176E12A8DE6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1751931743"/>
-        <c:axId val="1562696623"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1751931743"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1562696623"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1562696623"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1751931743"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>P701_points!$G$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>H(m)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.11046784776902888"/>
-                  <c:y val="1.6532516768737241E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="it-IT"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>P701_points!$F$9:$F$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>P701_points!$G$9:$G$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>7.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1D2C-44A0-87D9-2655707822A8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="486167999"/>
-        <c:axId val="486160927"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="486167999"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="486160927"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="486160927"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="486167999"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10094,6 +10287,1212 @@
 </file>
 
 <file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'P701'!$AS$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H(m)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.507020997375328E-2"/>
+                  <c:y val="-2.9403616214639838E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'P701'!$AR$14:$AR$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'P701'!$AS$14:$AS$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-34BD-43C9-BB41-2B9A1544A1FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1465683983"/>
+        <c:axId val="1465683567"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1465683983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1465683567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1465683567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1465683983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'P701'!$AS$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P2(kW)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.8601706036745408E-2"/>
+                  <c:y val="-2.2394569907328882E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'P701'!$AR$74:$AR$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'P701'!$AS$74:$AS$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>510</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-855B-4259-865C-7176E12A8DE6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1751931743"/>
+        <c:axId val="1562696623"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1751931743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1562696623"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1562696623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1751931743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>P701_points!$G$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H(m)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11046784776902888"/>
+                  <c:y val="1.6532516768737241E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>P701_points!$F$9:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>P701_points!$G$9:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1D2C-44A0-87D9-2655707822A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="486167999"/>
+        <c:axId val="486160927"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="486167999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="486160927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="486160927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="486167999"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -13736,6 +15135,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors31.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors32.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors33.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -25845,6 +27364,1554 @@
 </file>
 
 <file path=xl/charts/style30.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style31.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style32.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style33.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -30167,16 +33234,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>372208</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>64477</xdr:rowOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>318213</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>135561</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>67408</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>82062</xdr:rowOff>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>13413</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>159382</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -30742,13 +33809,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
+      <xdr:col>47</xdr:col>
       <xdr:colOff>150223</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>93616</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
+      <xdr:col>54</xdr:col>
       <xdr:colOff>455023</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>58782</xdr:rowOff>
@@ -30771,6 +33838,120 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>264459</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>569259</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>116196</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92159305-FD09-4F1F-A712-D0D9D85B4240}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>238539</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>178905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>543339</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>63966</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA2A7DC9-F85C-4AD5-9E62-2E71F5A0C39E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>68581</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>86165</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="28" name="Grafico 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{898F8901-37DE-4998-8F71-C8AA973D12AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -44925,190 +48106,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Foglio6"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="G8" t="str">
-            <v>H(m)</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9">
-            <v>2.4</v>
-          </cell>
-          <cell r="G9">
-            <v>7.6</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10">
-            <v>3.6</v>
-          </cell>
-          <cell r="G10">
-            <v>7.4</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11">
-            <v>5.6</v>
-          </cell>
-          <cell r="G11">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12">
-            <v>6</v>
-          </cell>
-          <cell r="G12">
-            <v>6.9</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="F13">
-            <v>7.6</v>
-          </cell>
-          <cell r="G13">
-            <v>6.3</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14">
-            <v>7.8</v>
-          </cell>
-          <cell r="G14">
-            <v>6.2</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="F15">
-            <v>8.6</v>
-          </cell>
-          <cell r="G15">
-            <v>5.8</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="F16">
-            <v>9.8000000000000007</v>
-          </cell>
-          <cell r="G16">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17">
-            <v>10.6</v>
-          </cell>
-          <cell r="G17">
-            <v>4.4000000000000004</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="F18">
-            <v>10.8</v>
-          </cell>
-          <cell r="G18">
-            <v>4.2</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="G22" t="str">
-            <v>P(W)</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="F23">
-            <v>2.4</v>
-          </cell>
-          <cell r="G23">
-            <v>140</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="F24">
-            <v>3.8</v>
-          </cell>
-          <cell r="G24">
-            <v>160</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="F25">
-            <v>4.8</v>
-          </cell>
-          <cell r="G25">
-            <v>174</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="F26">
-            <v>5.6</v>
-          </cell>
-          <cell r="G26">
-            <v>185</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="F27">
-            <v>5.9</v>
-          </cell>
-          <cell r="G27">
-            <v>190</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="F28">
-            <v>6.8</v>
-          </cell>
-          <cell r="G28">
-            <v>200</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="F29">
-            <v>7.6</v>
-          </cell>
-          <cell r="G29">
-            <v>210</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="F30">
-            <v>9.1999999999999993</v>
-          </cell>
-          <cell r="G30">
-            <v>230</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="F31">
-            <v>10</v>
-          </cell>
-          <cell r="G31">
-            <v>240</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="F32">
-            <v>10.7</v>
-          </cell>
-          <cell r="G32">
-            <v>250</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
@@ -46843,10 +49840,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDB0890-74A7-4484-A5B2-A796C8E2FB71}">
-  <dimension ref="AR13:AS81"/>
+  <dimension ref="AQ6:BI81"/>
   <sheetViews>
-    <sheetView topLeftCell="H28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AQ39" sqref="AQ39"/>
+    <sheetView tabSelected="1" topLeftCell="AM18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BH37" sqref="BH37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -46854,116 +49851,360 @@
     <col min="2" max="36" width="3.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="44:45" x14ac:dyDescent="0.3">
+    <row r="6" spans="43:61" x14ac:dyDescent="0.3">
+      <c r="AQ6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="43:61" x14ac:dyDescent="0.3">
+      <c r="AT8">
+        <f>40/50</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="43:61" x14ac:dyDescent="0.3">
       <c r="AR13" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AS13" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="1"/>
+      <c r="BF13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG13" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="14" spans="44:45" x14ac:dyDescent="0.3">
+    <row r="14" spans="43:61" x14ac:dyDescent="0.3">
       <c r="AR14">
         <v>10</v>
       </c>
       <c r="AS14">
         <v>27</v>
       </c>
+      <c r="AT14">
+        <f>-0.039537*AR14*AR14 +0.669933*0.8*AR14 + 24.122662*(0.8*0.8)</f>
+        <v>16.844267680000002</v>
+      </c>
+      <c r="AU14">
+        <f>-0.039537*AR14*AR14 +0.669933*0.6*AR14 + 24.122662*(0.6*0.6)</f>
+        <v>8.7500563200000006</v>
+      </c>
+      <c r="AV14">
+        <f>+AS14/1.1</f>
+        <v>24.545454545454543</v>
+      </c>
+      <c r="BF14">
+        <v>10</v>
+      </c>
+      <c r="BG14">
+        <v>27</v>
+      </c>
+      <c r="BH14">
+        <f>+BG14-2.5</f>
+        <v>24.5</v>
+      </c>
+      <c r="BI14">
+        <v>24.5</v>
+      </c>
     </row>
-    <row r="15" spans="44:45" x14ac:dyDescent="0.3">
+    <row r="15" spans="43:61" x14ac:dyDescent="0.3">
       <c r="AR15">
         <v>13</v>
       </c>
       <c r="AS15">
         <v>26</v>
       </c>
+      <c r="AT15">
+        <f t="shared" ref="AT15:AT23" si="0">-0.039537*AR15*AR15 +0.669933*0.8*AR15 + 24.122662*(0.8*0.8)</f>
+        <v>15.724053880000003</v>
+      </c>
+      <c r="AU15">
+        <f t="shared" ref="AU15:AU19" si="1">-0.039537*AR15*AR15 +0.669933*0.6*AR15 + 24.122662*(0.6*0.6)</f>
+        <v>7.2278827199999993</v>
+      </c>
+      <c r="AV15">
+        <f t="shared" ref="AV15:AV23" si="2">+AS15/1.1</f>
+        <v>23.636363636363633</v>
+      </c>
+      <c r="BF15">
+        <v>13</v>
+      </c>
+      <c r="BG15">
+        <v>26</v>
+      </c>
+      <c r="BH15">
+        <f t="shared" ref="BH15:BH16" si="3">+BG15-2.5</f>
+        <v>23.5</v>
+      </c>
+      <c r="BI15">
+        <v>23.5</v>
+      </c>
     </row>
-    <row r="16" spans="44:45" x14ac:dyDescent="0.3">
+    <row r="16" spans="43:61" x14ac:dyDescent="0.3">
       <c r="AR16">
         <v>17</v>
       </c>
       <c r="AS16">
         <v>24</v>
       </c>
+      <c r="AT16">
+        <f t="shared" si="0"/>
+        <v>13.123399480000002</v>
+      </c>
+      <c r="AU16">
+        <f t="shared" si="1"/>
+        <v>4.0912819199999984</v>
+      </c>
+      <c r="AV16">
+        <f t="shared" si="2"/>
+        <v>21.818181818181817</v>
+      </c>
+      <c r="BF16">
+        <v>17</v>
+      </c>
+      <c r="BG16">
+        <v>24</v>
+      </c>
+      <c r="BH16">
+        <f t="shared" si="3"/>
+        <v>21.5</v>
+      </c>
+      <c r="BI16">
+        <v>21.5</v>
+      </c>
     </row>
-    <row r="17" spans="44:45" x14ac:dyDescent="0.3">
+    <row r="17" spans="44:61" x14ac:dyDescent="0.3">
       <c r="AR17">
         <v>19</v>
       </c>
       <c r="AS17">
         <v>22.5</v>
       </c>
+      <c r="AT17">
+        <f t="shared" si="0"/>
+        <v>11.348628280000002</v>
+      </c>
+      <c r="AU17">
+        <f t="shared" si="1"/>
+        <v>2.0485375199999973</v>
+      </c>
+      <c r="AV17">
+        <f t="shared" si="2"/>
+        <v>20.454545454545453</v>
+      </c>
+      <c r="BF17">
+        <v>19</v>
+      </c>
+      <c r="BG17">
+        <v>22.5</v>
+      </c>
+      <c r="BH17">
+        <f>+BG17-2.4</f>
+        <v>20.100000000000001</v>
+      </c>
+      <c r="BI17">
+        <v>20.100000000000001</v>
+      </c>
     </row>
-    <row r="18" spans="44:45" x14ac:dyDescent="0.3">
+    <row r="18" spans="44:61" x14ac:dyDescent="0.3">
       <c r="AR18">
         <v>20</v>
       </c>
       <c r="AS18">
         <v>21.75</v>
       </c>
+      <c r="AT18">
+        <f t="shared" si="0"/>
+        <v>10.342631680000004</v>
+      </c>
+      <c r="AU18">
+        <f t="shared" si="1"/>
+        <v>0.90855432000000036</v>
+      </c>
+      <c r="AV18">
+        <f t="shared" si="2"/>
+        <v>19.77272727272727</v>
+      </c>
+      <c r="BF18">
+        <v>20</v>
+      </c>
+      <c r="BG18">
+        <v>21.75</v>
+      </c>
+      <c r="BH18">
+        <f>+BG18-2.3</f>
+        <v>19.45</v>
+      </c>
+      <c r="BI18">
+        <f t="shared" ref="BI18:BI21" si="4">+BH18+2</f>
+        <v>21.45</v>
+      </c>
     </row>
-    <row r="19" spans="44:45" x14ac:dyDescent="0.3">
+    <row r="19" spans="44:61" x14ac:dyDescent="0.3">
       <c r="AR19">
         <v>22</v>
       </c>
       <c r="AS19">
         <v>19.8</v>
       </c>
+      <c r="AT19">
+        <f t="shared" si="0"/>
+        <v>8.0934164800000019</v>
+      </c>
+      <c r="AV19">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="BF19">
+        <v>22</v>
+      </c>
+      <c r="BG19">
+        <v>19.8</v>
+      </c>
+      <c r="BH19">
+        <f>+BG19-2</f>
+        <v>17.8</v>
+      </c>
+      <c r="BI19">
+        <f t="shared" si="4"/>
+        <v>19.8</v>
+      </c>
     </row>
-    <row r="20" spans="44:45" x14ac:dyDescent="0.3">
+    <row r="20" spans="44:61" x14ac:dyDescent="0.3">
       <c r="AR20">
         <v>24</v>
       </c>
       <c r="AS20">
         <v>17.5</v>
       </c>
+      <c r="AT20">
+        <f t="shared" si="0"/>
+        <v>5.5279052800000024</v>
+      </c>
+      <c r="AV20">
+        <f t="shared" si="2"/>
+        <v>15.909090909090908</v>
+      </c>
+      <c r="BF20">
+        <v>24</v>
+      </c>
+      <c r="BG20">
+        <v>17.5</v>
+      </c>
+      <c r="BH20">
+        <f>+BG20-1.5</f>
+        <v>16</v>
+      </c>
+      <c r="BI20">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
     </row>
-    <row r="21" spans="44:45" x14ac:dyDescent="0.3">
+    <row r="21" spans="44:61" x14ac:dyDescent="0.3">
       <c r="AR21">
         <v>25</v>
       </c>
       <c r="AS21">
         <v>16.25</v>
       </c>
+      <c r="AV21">
+        <f t="shared" si="2"/>
+        <v>14.772727272727272</v>
+      </c>
+      <c r="BF21">
+        <v>25</v>
+      </c>
+      <c r="BG21">
+        <v>16.25</v>
+      </c>
+      <c r="BH21">
+        <f>+BG21-1.2</f>
+        <v>15.05</v>
+      </c>
+      <c r="BI21">
+        <f t="shared" si="4"/>
+        <v>17.05</v>
+      </c>
     </row>
-    <row r="22" spans="44:45" x14ac:dyDescent="0.3">
+    <row r="22" spans="44:61" x14ac:dyDescent="0.3">
       <c r="AR22">
         <v>26</v>
       </c>
       <c r="AS22">
         <v>14.9</v>
       </c>
+      <c r="AV22">
+        <f t="shared" si="2"/>
+        <v>13.545454545454545</v>
+      </c>
+      <c r="BF22">
+        <v>26</v>
+      </c>
+      <c r="BG22">
+        <v>14.9</v>
+      </c>
+      <c r="BH22">
+        <f>+BG22-1</f>
+        <v>13.9</v>
+      </c>
+      <c r="BI22">
+        <f>+BH22+1.5</f>
+        <v>15.4</v>
+      </c>
     </row>
-    <row r="23" spans="44:45" x14ac:dyDescent="0.3">
+    <row r="23" spans="44:61" x14ac:dyDescent="0.3">
       <c r="AR23">
         <v>28</v>
       </c>
       <c r="AS23">
         <v>11.7</v>
       </c>
+      <c r="AV23">
+        <f t="shared" si="2"/>
+        <v>10.636363636363635</v>
+      </c>
+      <c r="BF23">
+        <v>28</v>
+      </c>
+      <c r="BG23">
+        <v>11.7</v>
+      </c>
+      <c r="BH23">
+        <v>11.7</v>
+      </c>
+      <c r="BI23">
+        <f>+BH23+2</f>
+        <v>13.7</v>
+      </c>
     </row>
-    <row r="30" spans="44:45" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="44:45" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="44:45" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="44:45" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="44:45" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="44:45" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="44:45" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="44:45" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="44:45" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="44:45" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="44:45" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="44:45" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="44:45" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="44:45" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="44:45" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="44:45" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="44:45" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="44:45" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="44:61" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="44:61" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="44:61" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="44:47" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="44:47" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="44:47" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="44:47" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="44:47" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="44:47" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="44:47" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="44:47" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="44:47" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="44:47" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="44:47" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="44:47" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="44:47" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="44:47" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="44:47" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AR47" s="1"/>
       <c r="AS47" s="1"/>
+      <c r="AT47" s="1"/>
+      <c r="AU47" s="1"/>
     </row>
-    <row r="48" spans="44:45" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="44:47" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="49" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="50" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="51" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -46980,20 +50221,22 @@
     <row r="62" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="63" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="64" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" spans="44:45" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="44:45" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" spans="44:45" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="44:45" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="44:45" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="44:45" x14ac:dyDescent="0.3">
+    <row r="65" spans="44:47" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="44:47" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="44:47" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="44:47" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="44:47" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="44:47" x14ac:dyDescent="0.3">
       <c r="AR72" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AS72" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="AT72" s="1"/>
+      <c r="AU72" s="1"/>
     </row>
-    <row r="73" spans="44:45" x14ac:dyDescent="0.3">
+    <row r="73" spans="44:47" x14ac:dyDescent="0.3">
       <c r="AR73">
         <v>10</v>
       </c>
@@ -47002,7 +50245,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="74" spans="44:45" x14ac:dyDescent="0.3">
+    <row r="74" spans="44:47" x14ac:dyDescent="0.3">
       <c r="AR74">
         <v>11</v>
       </c>
@@ -47011,7 +50254,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="75" spans="44:45" x14ac:dyDescent="0.3">
+    <row r="75" spans="44:47" x14ac:dyDescent="0.3">
       <c r="AR75">
         <v>13</v>
       </c>
@@ -47020,7 +50263,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="76" spans="44:45" x14ac:dyDescent="0.3">
+    <row r="76" spans="44:47" x14ac:dyDescent="0.3">
       <c r="AR76">
         <v>15</v>
       </c>
@@ -47029,7 +50272,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="77" spans="44:45" x14ac:dyDescent="0.3">
+    <row r="77" spans="44:47" x14ac:dyDescent="0.3">
       <c r="AR77">
         <v>16</v>
       </c>
@@ -47038,7 +50281,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="78" spans="44:45" x14ac:dyDescent="0.3">
+    <row r="78" spans="44:47" x14ac:dyDescent="0.3">
       <c r="AR78">
         <v>20</v>
       </c>
@@ -47047,7 +50290,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="79" spans="44:45" x14ac:dyDescent="0.3">
+    <row r="79" spans="44:47" x14ac:dyDescent="0.3">
       <c r="AR79">
         <v>22</v>
       </c>
@@ -47056,7 +50299,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="80" spans="44:45" x14ac:dyDescent="0.3">
+    <row r="80" spans="44:47" x14ac:dyDescent="0.3">
       <c r="AR80">
         <v>25</v>
       </c>
@@ -54379,8 +57622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{494012FD-31C3-43B6-9F73-43D4F1673840}">
   <dimension ref="F8:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/doc/pumpinfo.xlsx
+++ b/doc/pumpinfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DiscoD\Muro\GitHub\multienergysystem\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58892A63-0816-4A31-A85F-C418F79D33C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAA72E3-8F4C-4584-B3C5-7AE9BAD3FD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="683" firstSheet="2" activeTab="10" xr2:uid="{4119C288-BE25-4E3B-9B9B-25A3EA8D7C7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="683" firstSheet="1" activeTab="13" xr2:uid="{4119C288-BE25-4E3B-9B9B-25A3EA8D7C7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36979,16 +36979,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>118696</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>46159</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>366347</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>24911</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -37017,16 +37017,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>162657</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>178045</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>465992</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>61547</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -49842,7 +49842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDB0890-74A7-4484-A5B2-A796C8E2FB71}">
   <dimension ref="AQ6:BI81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM18" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="AM15" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BH37" sqref="BH37"/>
     </sheetView>
   </sheetViews>
@@ -49919,11 +49919,11 @@
         <v>26</v>
       </c>
       <c r="AT15">
-        <f t="shared" ref="AT15:AT23" si="0">-0.039537*AR15*AR15 +0.669933*0.8*AR15 + 24.122662*(0.8*0.8)</f>
+        <f t="shared" ref="AT15:AT20" si="0">-0.039537*AR15*AR15 +0.669933*0.8*AR15 + 24.122662*(0.8*0.8)</f>
         <v>15.724053880000003</v>
       </c>
       <c r="AU15">
-        <f t="shared" ref="AU15:AU19" si="1">-0.039537*AR15*AR15 +0.669933*0.6*AR15 + 24.122662*(0.6*0.6)</f>
+        <f t="shared" ref="AU15:AU18" si="1">-0.039537*AR15*AR15 +0.669933*0.6*AR15 + 24.122662*(0.6*0.6)</f>
         <v>7.2278827199999993</v>
       </c>
       <c r="AV15">
@@ -53134,7 +53134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF412EAB-61E3-4B17-BE4C-3D51DF3A9EED}">
   <dimension ref="A1:AT94"/>
   <sheetViews>
-    <sheetView topLeftCell="J12" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+    <sheetView topLeftCell="C8" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="AE85" sqref="AE85"/>
     </sheetView>
   </sheetViews>
@@ -57620,15 +57620,15 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{494012FD-31C3-43B6-9F73-43D4F1673840}">
-  <dimension ref="F8:G30"/>
+  <dimension ref="F8:H30"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="8" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F8" s="1" t="s">
         <v>62</v>
       </c>
@@ -57636,31 +57636,43 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F9">
         <v>2.4</v>
       </c>
       <c r="G9">
         <v>9.09</v>
       </c>
+      <c r="H9">
+        <f>-0.041518*F9*F9 + 0.18674*F9 + 8.86824</f>
+        <v>9.0772723200000005</v>
+      </c>
     </row>
-    <row r="10" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F10">
         <v>3.4</v>
       </c>
       <c r="G10">
         <v>9</v>
       </c>
+      <c r="H10">
+        <f t="shared" ref="H10:H18" si="0">-0.041518*F10*F10 + 0.18674*F10 + 8.86824</f>
+        <v>9.0232079200000008</v>
+      </c>
     </row>
-    <row r="11" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F11">
         <v>5.4</v>
       </c>
       <c r="G11">
         <v>8.6666000000000007</v>
       </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>8.66597112</v>
+      </c>
     </row>
-    <row r="12" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F12">
         <v>6</v>
       </c>
@@ -57668,56 +57680,93 @@
         <f>+(8.3333+8.6666)/2</f>
         <v>8.4999500000000001</v>
       </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>8.4940320000000007</v>
+      </c>
     </row>
-    <row r="13" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F13">
         <v>7.4</v>
       </c>
       <c r="G13">
         <v>8</v>
       </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>7.9765903199999997</v>
+      </c>
     </row>
-    <row r="14" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F14">
         <v>8.8000000000000007</v>
       </c>
       <c r="G14">
         <v>7.33</v>
       </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>7.2963980799999995</v>
+      </c>
     </row>
-    <row r="15" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F15">
         <v>9.1999999999999993</v>
       </c>
       <c r="G15">
         <v>7</v>
       </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>7.0721644800000005</v>
+      </c>
     </row>
-    <row r="16" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F16">
         <v>10.4</v>
       </c>
       <c r="G16">
         <v>6.33</v>
       </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>6.31974912</v>
+      </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F17">
         <v>11.8</v>
       </c>
       <c r="G17">
         <v>5.33</v>
       </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>5.2908056799999992</v>
+      </c>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F18">
         <v>12</v>
       </c>
       <c r="G18">
         <v>5.0999999999999996</v>
       </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>5.130528</v>
+      </c>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>2.1</v>
+      </c>
+      <c r="H20">
+        <f>-0.041518*F20*F20 + 0.18674*F20 + 8.86824</f>
+        <v>9.0772996199999998</v>
+      </c>
+    </row>
+    <row r="22" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F22" s="1" t="s">
         <v>62</v>
       </c>
@@ -57725,7 +57774,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F23">
         <v>2.4</v>
       </c>
@@ -57733,7 +57782,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F24">
         <v>3.4</v>
       </c>
@@ -57741,7 +57790,7 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F25">
         <v>4</v>
       </c>
@@ -57749,7 +57798,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F26">
         <v>5.2</v>
       </c>
@@ -57758,7 +57807,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F27">
         <v>6</v>
       </c>
@@ -57766,7 +57815,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F28">
         <v>8.1999999999999993</v>
       </c>
@@ -57774,7 +57823,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F29">
         <v>9.1999999999999993</v>
       </c>
@@ -57783,7 +57832,7 @@
         <v>287.5</v>
       </c>
     </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F30">
         <v>12</v>
       </c>
